--- a/reports/nov-fim.xlsx
+++ b/reports/nov-fim.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF21"/>
+  <dimension ref="A1:BI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,235 +422,250 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>federal_cgrants_gross</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>federal_health_grants</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>federal_medicaid_grants</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>federal_cgrants</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>federal_igrants</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>pi_federal</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>state_local_nom</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pi_state_local</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>pi_state_local_c</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>pi_state_local_i</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>federal_nom_pi</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>state_local_nom_pi</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>federal_cgrants_pi</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>federal_igrants_pi</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>medicare</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>medicaid</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>health_outlays</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>unemployment_insurance</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>social_benefits_gross</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>social_benefits</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>personal_taxes</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>payroll_taxes</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>production_taxes</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>noncorp_taxes</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>corporate_taxes</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>subsidies</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>rebate_checks</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>federal_medicaid</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>federal_health_outlays</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>federal_unemployment_insurance</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>federal_rebate_checks</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>federal_social_benefits</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>federal_personal_taxes</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>federal_payroll_taxes</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>federal_production_taxes</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>federal_noncorp_taxes</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>federal_corporate_taxes</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>federal_subsidies</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>state_medicaid</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>state_health_outlays</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>state_social_benefits_gross</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>state_unemployment_insurance</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>state_rebate_checks</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>state_social_benefits</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>state_personal_taxes</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>state_payroll_taxes</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>state_production_taxes</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>state_noncorp_taxes</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>state_corporate_taxes</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>state_subsidies</t>
         </is>
@@ -691,144 +706,153 @@
         <v>1288.3</v>
       </c>
       <c r="L2">
+        <v>572.9</v>
+      </c>
+      <c r="M2">
         <v>400.144</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>382.986</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>189.914</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>64.776</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.00782060715835553</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2182.9</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.01212026394014409</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.01366811784954947</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.005141269958060635</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.00782060715835553</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.01212026394014409</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.01366811784954947</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>0.005141269958060635</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>705.8</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>575.8</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1281.6</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>29.8</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
+        <v>2834.7</v>
+      </c>
+      <c r="AE2">
         <v>1553</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>2127.9</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>1328.4</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>1389.8</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>4846</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>278.9</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>60</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
         <v>382.986</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>1088.786</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>29.364</v>
       </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>1389.136</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>1650.8</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>1308.2</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>134.3</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>3093.3</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <v>223.5</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>59.4</v>
       </c>
-      <c r="AV2">
+      <c r="AX2">
         <v>192.814</v>
       </c>
-      <c r="AW2">
+      <c r="AY2">
         <v>192.814</v>
       </c>
-      <c r="AX2">
+      <c r="AZ2">
+        <v>739.664</v>
+      </c>
+      <c r="BA2">
         <v>0.4359999999999999</v>
       </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
         <v>163.864</v>
       </c>
-      <c r="BA2">
+      <c r="BD2">
         <v>477</v>
       </c>
-      <c r="BB2">
+      <c r="BE2">
         <v>20.2</v>
       </c>
-      <c r="BC2">
+      <c r="BF2">
         <v>1255.5</v>
       </c>
-      <c r="BD2">
+      <c r="BG2">
         <v>1752.7</v>
       </c>
-      <c r="BE2">
+      <c r="BH2">
         <v>55.4</v>
       </c>
-      <c r="BF2">
+      <c r="BI2">
         <v>0.6</v>
       </c>
     </row>
@@ -867,144 +891,153 @@
         <v>1308.1</v>
       </c>
       <c r="L3">
+        <v>581.5</v>
+      </c>
+      <c r="M3">
         <v>411.384</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>389.195</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>192.305</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>65.084</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.01058681468862033</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2213.4</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.01102038589536103</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.01135909635709864</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.009461326598771969</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.01058681468862033</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.01102038589536103</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.01135909635709864</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.009461326598771969</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>716.1</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>581.8</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1297.9</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>29.2</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
+        <v>2890.9</v>
+      </c>
+      <c r="AE3">
         <v>1593</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>2085.6</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>1348.3</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>1418.3</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>4852.1</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>244.1</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>58.2</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
         <v>389.195</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>1105.295</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>28.799</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
         <v>1428.501</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>1598.6</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>1327.8</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>150.1</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>3076.5</v>
       </c>
-      <c r="AT3">
+      <c r="AV3">
         <v>188.7</v>
       </c>
-      <c r="AU3">
+      <c r="AW3">
         <v>57.6</v>
       </c>
-      <c r="AV3">
+      <c r="AX3">
         <v>192.605</v>
       </c>
-      <c r="AW3">
+      <c r="AY3">
         <v>192.605</v>
       </c>
-      <c r="AX3">
+      <c r="AZ3">
+        <v>746.299</v>
+      </c>
+      <c r="BA3">
         <v>0.4009999999999998</v>
       </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
         <v>164.499</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>487</v>
       </c>
-      <c r="BB3">
+      <c r="BE3">
         <v>20.4</v>
       </c>
-      <c r="BC3">
+      <c r="BF3">
         <v>1268.2</v>
       </c>
-      <c r="BD3">
+      <c r="BG3">
         <v>1775.6</v>
       </c>
-      <c r="BE3">
+      <c r="BH3">
         <v>55.4</v>
       </c>
-      <c r="BF3">
+      <c r="BI3">
         <v>0.6</v>
       </c>
     </row>
@@ -1043,144 +1076,153 @@
         <v>1329.3</v>
       </c>
       <c r="L4">
+        <v>578</v>
+      </c>
+      <c r="M4">
         <v>405.388</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>386.857</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>191.143</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>64.961</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.007419277153072335</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2250.7</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.01056749707707527</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.00985787777308933</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.01379610409622822</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.007419277153072335</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.01056749707707527</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.00985787777308933</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.01379610409622822</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>727.5</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>592.6</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1320.1</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>27.9</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
+        <v>2916</v>
+      </c>
+      <c r="AE4">
         <v>1595.9</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>2064.4</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>1358</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>1433.1</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>4855.4</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>265.5</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>57.8</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
         <v>386.857</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>1114.357</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>27.492</v>
       </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
         <v>1431.708</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>1608.9</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>1337.2</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>155.2</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>3101.3</v>
       </c>
-      <c r="AT4">
+      <c r="AV4">
         <v>204.7</v>
       </c>
-      <c r="AU4">
+      <c r="AW4">
         <v>57.2</v>
       </c>
-      <c r="AV4">
+      <c r="AX4">
         <v>205.743</v>
       </c>
-      <c r="AW4">
+      <c r="AY4">
         <v>205.743</v>
       </c>
-      <c r="AX4">
+      <c r="AZ4">
+        <v>756.7919999999999</v>
+      </c>
+      <c r="BA4">
         <v>0.4079999999999977</v>
       </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
         <v>164.192</v>
       </c>
-      <c r="BA4">
+      <c r="BD4">
         <v>455.5</v>
       </c>
-      <c r="BB4">
+      <c r="BE4">
         <v>20.8</v>
       </c>
-      <c r="BC4">
+      <c r="BF4">
         <v>1277.8</v>
       </c>
-      <c r="BD4">
+      <c r="BG4">
         <v>1754.1</v>
       </c>
-      <c r="BE4">
+      <c r="BH4">
         <v>60.8</v>
       </c>
-      <c r="BF4">
+      <c r="BI4">
         <v>0.6</v>
       </c>
     </row>
@@ -1219,144 +1261,153 @@
         <v>1352</v>
       </c>
       <c r="L5">
+        <v>584.3</v>
+      </c>
+      <c r="M5">
         <v>414.827</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>392.516</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>191.7839999999999</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>68.57299999999999</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.0059762970863253</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2279.1</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.009193254127174866</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.009494936922680441</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.007841349033913536</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.0059762970863253</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.009193254127174866</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.009494936922680441</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.007841349033913536</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>739.9</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>595.1</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1335</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>27.4</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
+        <v>2935.4</v>
+      </c>
+      <c r="AE5">
         <v>1600.4</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>2100.5</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>1374.2</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>1448.7</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>4923.5</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>276.3</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>57.9</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
         <v>392.516</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>1132.416</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>26.989</v>
       </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
         <v>1435.211</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>1628.3</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>1353.1</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>162.1</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>3143.5</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>214.2</v>
       </c>
-      <c r="AU5">
+      <c r="AW5">
         <v>57.3</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>202.584</v>
       </c>
-      <c r="AW5">
+      <c r="AY5">
         <v>202.584</v>
       </c>
-      <c r="AX5">
+      <c r="AZ5">
+        <v>760.289</v>
+      </c>
+      <c r="BA5">
         <v>0.4109999999999978</v>
       </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
         <v>165.1889999999999</v>
       </c>
-      <c r="BA5">
+      <c r="BD5">
         <v>472.2</v>
       </c>
-      <c r="BB5">
+      <c r="BE5">
         <v>21.2</v>
       </c>
-      <c r="BC5">
+      <c r="BF5">
         <v>1286.6</v>
       </c>
-      <c r="BD5">
+      <c r="BG5">
         <v>1780</v>
       </c>
-      <c r="BE5">
+      <c r="BH5">
         <v>62.1</v>
       </c>
-      <c r="BF5">
+      <c r="BI5">
         <v>0.6</v>
       </c>
     </row>
@@ -1395,144 +1446,153 @@
         <v>1368.4</v>
       </c>
       <c r="L6">
+        <v>586.5</v>
+      </c>
+      <c r="M6">
         <v>409.361</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>389.624</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>196.876</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>64.617</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.00735744381380643</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2279.6</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.006613873260551406</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.005786048313943804</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.01030872959545781</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.00735744381380643</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.006613873260551406</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.005786048313943804</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0.01030872959545781</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>753.3</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>589.8</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1343.1</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>27</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
+        <v>2949.4</v>
+      </c>
+      <c r="AE6">
         <v>1606.2</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>2090.7</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>1381.9</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>1479</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>4951.6</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>298.2</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>79.5</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>389.624</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>1142.924</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>26.647</v>
       </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>1440.553</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>1634.2</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>1360.3</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>183.5</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>3178</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>234.7</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>78.90000000000001</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>200.1759999999999</v>
       </c>
-      <c r="AW6">
+      <c r="AY6">
         <v>200.1759999999999</v>
       </c>
-      <c r="AX6">
+      <c r="AZ6">
+        <v>755.447</v>
+      </c>
+      <c r="BA6">
         <v>0.3530000000000015</v>
       </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
         <v>165.6470000000001</v>
       </c>
-      <c r="BA6">
+      <c r="BD6">
         <v>456.5</v>
       </c>
-      <c r="BB6">
+      <c r="BE6">
         <v>21.6</v>
       </c>
-      <c r="BC6">
+      <c r="BF6">
         <v>1295.5</v>
       </c>
-      <c r="BD6">
+      <c r="BG6">
         <v>1773.6</v>
       </c>
-      <c r="BE6">
+      <c r="BH6">
         <v>63.5</v>
       </c>
-      <c r="BF6">
+      <c r="BI6">
         <v>0.6</v>
       </c>
     </row>
@@ -1571,144 +1631,153 @@
         <v>1388.8</v>
       </c>
       <c r="L7">
+        <v>594.2</v>
+      </c>
+      <c r="M7">
         <v>428.612</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>404.529</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>189.6710000000001</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>67.605</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.01144096245622306</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2292.7</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>-0.00204997021410791</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>-0.003484930739190539</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.004451976607365404</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.01144096245622306</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>-0.00204997021410791</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-0.003484930739190539</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>0.004451976607365404</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>767.4</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>599.4</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1366.8</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>28</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
+        <v>3037.5</v>
+      </c>
+      <c r="AE7">
         <v>1670.7</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>2170.7</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>1413.9</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>1473.8</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>5058.3</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>282.3</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>71.3</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
         <v>404.529</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>1171.929</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>27.557</v>
       </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
         <v>1503.843</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>1695.5</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>1391.9</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>172.1</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>3259.5</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>213.8</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>70.7</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>194.871</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>194.871</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
+        <v>766.2570000000001</v>
+      </c>
+      <c r="BA7">
         <v>0.4430000000000014</v>
       </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
         <v>166.8570000000001</v>
       </c>
-      <c r="BA7">
+      <c r="BD7">
         <v>475.2</v>
       </c>
-      <c r="BB7">
+      <c r="BE7">
         <v>22</v>
       </c>
-      <c r="BC7">
+      <c r="BF7">
         <v>1301.6</v>
       </c>
-      <c r="BD7">
+      <c r="BG7">
         <v>1798.8</v>
       </c>
-      <c r="BE7">
+      <c r="BH7">
         <v>68.5</v>
       </c>
-      <c r="BF7">
+      <c r="BI7">
         <v>0.6</v>
       </c>
     </row>
@@ -1747,144 +1816,153 @@
         <v>1410.6</v>
       </c>
       <c r="L8">
+        <v>612.5</v>
+      </c>
+      <c r="M8">
         <v>439.939</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>419.672</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>192.828</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>66.614</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-0.006440674925322298</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2327</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.008567866987376327</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.007723534373681895</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.01227390745613666</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-0.006440674925322298</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.008567866987376327</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.007723534373681895</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>0.01227390745613666</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>779.7</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>615</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>1394.7</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>27.5</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
+        <v>3071</v>
+      </c>
+      <c r="AE8">
         <v>1676.3</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>2222.5</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>1419.9</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>1480.7</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>5123.1</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>292.9</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>61.1</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>419.672</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>1199.372</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>27.095</v>
       </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
         <v>1509.005</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>1703.1</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>1397.8</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>168.3</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>3269.2</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>224.2</v>
       </c>
-      <c r="AU8">
+      <c r="AW8">
         <v>60.5</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>195.328</v>
       </c>
-      <c r="AW8">
+      <c r="AY8">
         <v>195.328</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
+        <v>782.2950000000001</v>
+      </c>
+      <c r="BA8">
         <v>0.4050000000000011</v>
       </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
         <v>167.2950000000001</v>
       </c>
-      <c r="BA8">
+      <c r="BD8">
         <v>519.4</v>
       </c>
-      <c r="BB8">
+      <c r="BE8">
         <v>22.1</v>
       </c>
-      <c r="BC8">
+      <c r="BF8">
         <v>1312.4</v>
       </c>
-      <c r="BD8">
+      <c r="BG8">
         <v>1853.9</v>
       </c>
-      <c r="BE8">
+      <c r="BH8">
         <v>68.7</v>
       </c>
-      <c r="BF8">
+      <c r="BI8">
         <v>0.6</v>
       </c>
     </row>
@@ -1923,144 +2001,153 @@
         <v>1429.3</v>
       </c>
       <c r="L9">
+        <v>610.3</v>
+      </c>
+      <c r="M9">
         <v>438.361</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>418.824</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>191.4759999999999</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>68.895</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.001444551782667336</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2337.8</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.003237879711027958</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.002790202900067262</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.005164388175451062</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.001444551782667336</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.003237879711027958</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.002790202900067262</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.005164388175451062</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>789.9</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>622.3</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1412.2</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>27.6</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
+        <v>3094.8</v>
+      </c>
+      <c r="AE9">
         <v>1682.6</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>2197.1</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>1424.1</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>1501.6</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>5122.8</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>271.4</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>82</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>418.824</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>1208.724</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>27.197</v>
       </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
         <v>1514.303</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>1713.2</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>1402.3</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>175.1</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>3290.6</v>
       </c>
-      <c r="AT9">
+      <c r="AV9">
         <v>201.6</v>
       </c>
-      <c r="AU9">
+      <c r="AW9">
         <v>81.40000000000001</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>203.4759999999999</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
         <v>203.4759999999999</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
+        <v>790.597</v>
+      </c>
+      <c r="BA9">
         <v>0.4030000000000023</v>
       </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
         <v>168.2970000000001</v>
       </c>
-      <c r="BA9">
+      <c r="BD9">
         <v>483.9</v>
       </c>
-      <c r="BB9">
+      <c r="BE9">
         <v>21.8</v>
       </c>
-      <c r="BC9">
+      <c r="BF9">
         <v>1326.5</v>
       </c>
-      <c r="BD9">
+      <c r="BG9">
         <v>1832.2</v>
       </c>
-      <c r="BE9">
+      <c r="BH9">
         <v>69.8</v>
       </c>
-      <c r="BF9">
+      <c r="BI9">
         <v>0.6</v>
       </c>
     </row>
@@ -2099,144 +2186,153 @@
         <v>1447.9</v>
       </c>
       <c r="L10">
+        <v>615.4</v>
+      </c>
+      <c r="M10">
         <v>436.04</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>411.409</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>203.991</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>69.791</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.003245553141425051</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2357.4</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.004763061546737113</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.005590964028276524</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.001116924848141077</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.003245553141425051</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.004763061546737113</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.005590964028276524</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>0.001116924848141077</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>797.9</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>619.4</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1417.3</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>27.9</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
+        <v>3108.7</v>
+      </c>
+      <c r="AE10">
         <v>1691.4</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>2221.2</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>1438.1</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>1509.6</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>5168.700000000001</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>300.7</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>81.09999999999999</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>411.409</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>1209.309</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>27.492</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
         <v>1522.308</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>1740.2</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>1416.9</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>179.2</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>3336.3</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>229.7</v>
       </c>
-      <c r="AU10">
+      <c r="AW10">
         <v>80.5</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>207.991</v>
       </c>
-      <c r="AW10">
+      <c r="AY10">
         <v>207.991</v>
       </c>
-      <c r="AX10">
+      <c r="AZ10">
+        <v>788.492</v>
+      </c>
+      <c r="BA10">
         <v>0.4079999999999977</v>
       </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
         <v>169.092</v>
       </c>
-      <c r="BA10">
+      <c r="BD10">
         <v>480.9</v>
       </c>
-      <c r="BB10">
+      <c r="BE10">
         <v>21.1</v>
       </c>
-      <c r="BC10">
+      <c r="BF10">
         <v>1330.4</v>
       </c>
-      <c r="BD10">
+      <c r="BG10">
         <v>1832.4</v>
       </c>
-      <c r="BE10">
+      <c r="BH10">
         <v>71</v>
       </c>
-      <c r="BF10">
+      <c r="BI10">
         <v>0.6</v>
       </c>
     </row>
@@ -2275,144 +2371,153 @@
         <v>1452.6</v>
       </c>
       <c r="L11">
+        <v>627.8</v>
+      </c>
+      <c r="M11">
         <v>444.822</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>423.429</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>204.371</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>72.23999999999999</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-0.0006829557606420344</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2381.6</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.007572683078463927</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.008456549935149216</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.003776143356133188</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-0.0006829557606420344</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.007572683078463927</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.008456549935149216</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>0.003776143356133188</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>804.7</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>624.1</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1428.8</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>43.4</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
+        <v>3189.6</v>
+      </c>
+      <c r="AE11">
         <v>1760.8</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>2252.4</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>1456.8</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>1530</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>5239.200000000001</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>243.2</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>75.09999999999999</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
         <v>423.429</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>1228.129</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>43.021</v>
       </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
         <v>1574.779</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>1756.6</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>1436.4</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>183.8</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <v>3376.8</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>180.5</v>
       </c>
-      <c r="AU11">
+      <c r="AW11">
         <v>74.5</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>200.6710000000001</v>
       </c>
-      <c r="AW11">
+      <c r="AY11">
         <v>200.6710000000001</v>
       </c>
-      <c r="AX11">
+      <c r="AZ11">
+        <v>810.121</v>
+      </c>
+      <c r="BA11">
         <v>0.3789999999999978</v>
       </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
         <v>186.021</v>
       </c>
-      <c r="BA11">
+      <c r="BD11">
         <v>495.8</v>
       </c>
-      <c r="BB11">
+      <c r="BE11">
         <v>20.4</v>
       </c>
-      <c r="BC11">
+      <c r="BF11">
         <v>1346.2</v>
       </c>
-      <c r="BD11">
+      <c r="BG11">
         <v>1862.4</v>
       </c>
-      <c r="BE11">
+      <c r="BH11">
         <v>62.7</v>
       </c>
-      <c r="BF11">
+      <c r="BI11">
         <v>0.6</v>
       </c>
     </row>
@@ -2451,144 +2556,153 @@
         <v>1504.8</v>
       </c>
       <c r="L12">
+        <v>1396.9</v>
+      </c>
+      <c r="M12">
         <v>596.61</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>512.64</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>279.25</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>72.52500000000001</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-0.002733690031923031</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2334.5</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-0.006161730426436418</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-0.007005178859278982</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-0.002616256700951558</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-0.002733690031923031</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-0.006161730426436418</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-0.007005178859278982</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-0.002616256700951558</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>824.1</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>668.8</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1492.9</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1084.6</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
+        <v>5627.4</v>
+      </c>
+      <c r="AE12">
         <v>3056.500000000001</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>2096.5</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>1393.3</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>1395.8</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>4885.5</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>225.7</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>1086.5</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>1078.1</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>512.64</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>1336.74</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>1062.344</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>1078.1</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>3697.656000000001</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>1600.1</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>1374.2</v>
       </c>
-      <c r="AR12">
+      <c r="AT12">
         <v>131.4</v>
       </c>
-      <c r="AS12">
+      <c r="AU12">
         <v>3105.7</v>
       </c>
-      <c r="AT12">
+      <c r="AV12">
         <v>171.5</v>
       </c>
-      <c r="AU12">
+      <c r="AW12">
         <v>1085.9</v>
       </c>
-      <c r="AV12">
+      <c r="AX12">
         <v>156.16</v>
       </c>
-      <c r="AW12">
+      <c r="AY12">
         <v>156.16</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
+        <v>1105.744</v>
+      </c>
+      <c r="BA12">
         <v>22.25599999999986</v>
       </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
         <v>436.9440000000002</v>
       </c>
-      <c r="BA12">
+      <c r="BD12">
         <v>496.4</v>
       </c>
-      <c r="BB12">
+      <c r="BE12">
         <v>19.1</v>
       </c>
-      <c r="BC12">
+      <c r="BF12">
         <v>1264.3</v>
       </c>
-      <c r="BD12">
+      <c r="BG12">
         <v>1779.8</v>
       </c>
-      <c r="BE12">
+      <c r="BH12">
         <v>54.2</v>
       </c>
-      <c r="BF12">
+      <c r="BI12">
         <v>0.6</v>
       </c>
     </row>
@@ -2627,144 +2741,153 @@
         <v>1486.8</v>
       </c>
       <c r="L13">
+        <v>728.2</v>
+      </c>
+      <c r="M13">
         <v>533.712</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>486.072</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>286.9506143673578</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>73.845</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.00395848549607325</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2329.7</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.008157352395899098</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>0.007797186795727384</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>0.009678110668209783</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.00395848549607325</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>0.008157352395899098</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>0.007797186795727384</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>0.009678110668209783</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>842.7</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>691.3</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1534</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>768.7</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
+        <v>4324.1</v>
+      </c>
+      <c r="AE13">
         <v>2774.5</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>2186.6</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>1455</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>1462</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>5103.6</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <v>284.4</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>1213.3</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>15.6</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>486.072</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>1328.772</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>731.1369999999999</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>15.6</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>1914.263</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>1687.2</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>1434.8</v>
       </c>
-      <c r="AR13">
+      <c r="AT13">
         <v>144.7</v>
       </c>
-      <c r="AS13">
+      <c r="AU13">
         <v>3266.7</v>
       </c>
-      <c r="AT13">
+      <c r="AV13">
         <v>205.3</v>
       </c>
-      <c r="AU13">
+      <c r="AW13">
         <v>1212.7</v>
       </c>
-      <c r="AV13">
+      <c r="AX13">
         <v>205.228</v>
       </c>
-      <c r="AW13">
+      <c r="AY13">
         <v>205.228</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
+        <v>1567.137</v>
+      </c>
+      <c r="BA13">
         <v>37.5630000000001</v>
       </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
         <v>875.8370000000001</v>
       </c>
-      <c r="BA13">
+      <c r="BD13">
         <v>499.4</v>
       </c>
-      <c r="BB13">
+      <c r="BE13">
         <v>20.2</v>
       </c>
-      <c r="BC13">
+      <c r="BF13">
         <v>1317.3</v>
       </c>
-      <c r="BD13">
+      <c r="BG13">
         <v>1836.9</v>
       </c>
-      <c r="BE13">
+      <c r="BH13">
         <v>79.09999999999999</v>
       </c>
-      <c r="BF13">
+      <c r="BI13">
         <v>0.6</v>
       </c>
     </row>
@@ -2800,25 +2923,25 @@
         <v>1498.136073725386</v>
       </c>
       <c r="L14">
+        <v>733.7521447987803</v>
+      </c>
+      <c r="M14">
         <v>554.0794560702121</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>504.62142385961</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>298.3728847770673</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>74.40802956971426</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.003650663071831373</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2335.52425</v>
-      </c>
-      <c r="R14">
-        <v>0.003458823943076839</v>
       </c>
       <c r="S14">
         <v>0.003458823943076839</v>
@@ -2827,10 +2950,10 @@
         <v>0.003458823943076839</v>
       </c>
       <c r="U14">
+        <v>0.003458823943076839</v>
+      </c>
+      <c r="V14">
         <v>0.003650663071831373</v>
-      </c>
-      <c r="V14">
-        <v>0.003458823943076839</v>
       </c>
       <c r="W14">
         <v>0.003458823943076839</v>
@@ -2839,105 +2962,114 @@
         <v>0.003458823943076839</v>
       </c>
       <c r="Y14">
+        <v>0.003458823943076839</v>
+      </c>
+      <c r="Z14">
         <v>829.9102013704255</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>717.6813112340319</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1560.085909603978</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>337.8</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
+        <v>4053.48416855598</v>
+      </c>
+      <c r="AE14">
         <v>2189.520336653418</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>2204.038466636743</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>1475.257314660539</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>1490.738044351792</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>5170.12504575753</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>296.1330977840783</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>383.533973293099</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
         <v>504.62142385961</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>1373.815672859001</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>257.8</v>
       </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
         <v>1966.597486653418</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>1694.539756323234</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>1454.648836590189</v>
       </c>
-      <c r="AR14">
+      <c r="AT14">
         <v>146.8000165264321</v>
       </c>
-      <c r="AS14">
+      <c r="AU14">
         <v>3295.988609439855</v>
       </c>
-      <c r="AT14">
+      <c r="AV14">
         <v>215.4316552197742</v>
       </c>
-      <c r="AU14">
+      <c r="AW14">
         <v>382.9320083465823</v>
       </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>213.0598873744219</v>
       </c>
-      <c r="AW14">
+      <c r="AY14">
         <v>186.2702367449772</v>
       </c>
-      <c r="AX14">
+      <c r="AZ14">
+        <v>1571.0548425</v>
+      </c>
+      <c r="BA14">
         <v>80</v>
       </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
         <v>222.92285</v>
       </c>
-      <c r="BA14">
+      <c r="BD14">
         <v>509.4987103135083</v>
       </c>
-      <c r="BB14">
+      <c r="BE14">
         <v>20.60847807035016</v>
       </c>
-      <c r="BC14">
+      <c r="BF14">
         <v>1343.93802782536</v>
       </c>
-      <c r="BD14">
+      <c r="BG14">
         <v>1874.136436317675</v>
       </c>
-      <c r="BE14">
+      <c r="BH14">
         <v>80.70144256430407</v>
       </c>
-      <c r="BF14">
+      <c r="BI14">
         <v>0.6019649465167092</v>
       </c>
     </row>
@@ -2973,25 +3105,25 @@
         <v>1504.149121527548</v>
       </c>
       <c r="L15">
+        <v>736.6971955181332</v>
+      </c>
+      <c r="M15">
         <v>574.4469121404243</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>523.17084771922</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>282.1409954476429</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>74.70668003712791</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.003938982612060604</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2341.363060624999</v>
-      </c>
-      <c r="R15">
-        <v>0.0031885362715387</v>
       </c>
       <c r="S15">
         <v>0.0031885362715387</v>
@@ -3000,10 +3132,10 @@
         <v>0.0031885362715387</v>
       </c>
       <c r="U15">
+        <v>0.0031885362715387</v>
+      </c>
+      <c r="V15">
         <v>0.003938982612060604</v>
-      </c>
-      <c r="V15">
-        <v>0.0031885362715387</v>
       </c>
       <c r="W15">
         <v>0.0031885362715387</v>
@@ -3012,105 +3144,114 @@
         <v>0.0031885362715387</v>
       </c>
       <c r="Y15">
+        <v>0.0031885362715387</v>
+      </c>
+      <c r="Z15">
         <v>817.120402740851</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>744.0626224680639</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1581.782516821709</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>244</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
+        <v>3839.11892470529</v>
+      </c>
+      <c r="AE15">
         <v>2091.22295283599</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>2219.828214992802</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>1495.447941076645</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>1515.127156803014</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <v>5230.496045858525</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
         <v>307.6031794471427</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>100.8542546295093</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
         <v>523.17084771922</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>1393.653506706882</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>184</v>
       </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
         <v>1887.94279571099</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>1701.879512646469</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>1474.497673180378</v>
       </c>
-      <c r="AR15">
+      <c r="AT15">
         <v>148.9000330528643</v>
       </c>
-      <c r="AS15">
+      <c r="AU15">
         <v>3325.277218879711</v>
       </c>
-      <c r="AT15">
+      <c r="AV15">
         <v>225.5633104395485</v>
       </c>
-      <c r="AU15">
+      <c r="AW15">
         <v>100.2502499999998</v>
       </c>
-      <c r="AV15">
+      <c r="AX15">
         <v>220.8917747488439</v>
       </c>
-      <c r="AW15">
+      <c r="AY15">
         <v>188.1290101148273</v>
       </c>
-      <c r="AX15">
+      <c r="AZ15">
+        <v>1574.98247960625</v>
+      </c>
+      <c r="BA15">
         <v>60</v>
       </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
         <v>203.2801571250001</v>
       </c>
-      <c r="BA15">
+      <c r="BD15">
         <v>517.948702346333</v>
       </c>
-      <c r="BB15">
+      <c r="BE15">
         <v>20.95026789626738</v>
       </c>
-      <c r="BC15">
+      <c r="BF15">
         <v>1366.227123750149</v>
       </c>
-      <c r="BD15">
+      <c r="BG15">
         <v>1905.218826978813</v>
       </c>
-      <c r="BE15">
+      <c r="BH15">
         <v>82.03986900759421</v>
       </c>
-      <c r="BF15">
+      <c r="BI15">
         <v>0.6040046295094899</v>
       </c>
     </row>
@@ -3146,25 +3287,25 @@
         <v>1511.049340316913</v>
       </c>
       <c r="L16">
+        <v>740.0767619173906</v>
+      </c>
+      <c r="M16">
         <v>594.8143682106365</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>541.72027157883</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>255.0224339220724</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>75.04939368825832</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.00541033706720695</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2347.216468276562</v>
-      </c>
-      <c r="R16">
-        <v>0.005802914123625325</v>
       </c>
       <c r="S16">
         <v>0.005802914123625325</v>
@@ -3173,10 +3314,10 @@
         <v>0.005802914123625325</v>
       </c>
       <c r="U16">
+        <v>0.005802914123625325</v>
+      </c>
+      <c r="V16">
         <v>0.00541033706720695</v>
-      </c>
-      <c r="V16">
-        <v>0.005802914123625325</v>
       </c>
       <c r="W16">
         <v>0.005802914123625325</v>
@@ -3185,105 +3326,114 @@
         <v>0.005802914123625325</v>
       </c>
       <c r="Y16">
+        <v>0.005802914123625325</v>
+      </c>
+      <c r="Z16">
         <v>804.3306041112766</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>770.4439337020959</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1597.647370428753</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>152</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
+        <v>3665.253690206791</v>
+      </c>
+      <c r="AE16">
         <v>1986.869318679094</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>2235.404102455741</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>1515.629917132237</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>1538.952154407404</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>5290.080381569621</v>
       </c>
-      <c r="AH16">
+      <c r="AJ16">
         <v>319.0393868682636</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>100.8564375574148</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
         <v>541.72027157883</v>
       </c>
-      <c r="AL16">
+      <c r="AN16">
         <v>1409.518360313926</v>
       </c>
-      <c r="AM16">
+      <c r="AO16">
         <v>108</v>
       </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
         <v>1799.230961161282</v>
       </c>
-      <c r="AP16">
+      <c r="AR16">
         <v>1709.219268969704</v>
       </c>
-      <c r="AQ16">
+      <c r="AS16">
         <v>1494.346509770567</v>
       </c>
-      <c r="AR16">
+      <c r="AT16">
         <v>151.0000495792963</v>
       </c>
-      <c r="AS16">
+      <c r="AU16">
         <v>3354.565828319567</v>
       </c>
-      <c r="AT16">
+      <c r="AV16">
         <v>235.6949656593226</v>
       </c>
-      <c r="AU16">
+      <c r="AW16">
         <v>100.2502500000001</v>
       </c>
-      <c r="AV16">
+      <c r="AX16">
         <v>228.723662123266</v>
       </c>
-      <c r="AW16">
+      <c r="AY16">
         <v>188.1290101148273</v>
       </c>
-      <c r="AX16">
+      <c r="AZ16">
+        <v>1578.919935805265</v>
+      </c>
+      <c r="BA16">
         <v>44</v>
       </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
         <v>187.6383575178124</v>
       </c>
-      <c r="BA16">
+      <c r="BD16">
         <v>526.1848334860374</v>
       </c>
-      <c r="BB16">
+      <c r="BE16">
         <v>21.28340736166992</v>
       </c>
-      <c r="BC16">
+      <c r="BF16">
         <v>1387.952104828108</v>
       </c>
-      <c r="BD16">
+      <c r="BG16">
         <v>1935.514553250054</v>
       </c>
-      <c r="BE16">
+      <c r="BH16">
         <v>83.34442120894099</v>
       </c>
-      <c r="BF16">
+      <c r="BI16">
         <v>0.6061875574147406</v>
       </c>
     </row>
@@ -3319,25 +3469,25 @@
         <v>1519.132453755884</v>
       </c>
       <c r="L17">
+        <v>744.0356825565207</v>
+      </c>
+      <c r="M17">
         <v>615.1818242808486</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>560.2696954384398</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>256.0549761349776</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>75.45085825101107</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.004676012656119388</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2358.952550617944</v>
-      </c>
-      <c r="R17">
-        <v>0.005585189534516033</v>
       </c>
       <c r="S17">
         <v>0.005585189534516033</v>
@@ -3346,10 +3496,10 @@
         <v>0.005585189534516033</v>
       </c>
       <c r="U17">
+        <v>0.005585189534516033</v>
+      </c>
+      <c r="V17">
         <v>0.004676012656119388</v>
-      </c>
-      <c r="V17">
-        <v>0.005585189534516033</v>
       </c>
       <c r="W17">
         <v>0.005585189534516033</v>
@@ -3358,105 +3508,114 @@
         <v>0.005585189534516033</v>
       </c>
       <c r="Y17">
+        <v>0.005585189534516033</v>
+      </c>
+      <c r="Z17">
         <v>791.540805481702</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>796.8252449361278</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>1608.351365357586</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>44</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
+        <v>3546.002028942567</v>
+      </c>
+      <c r="AE17">
         <v>1851.345778257974</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>2251.546969960907</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>1535.834826701751</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>1564.272712303394</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <v>5351.750292639973</v>
       </c>
-      <c r="AH17">
+      <c r="AJ17">
         <v>330.5654004191876</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <v>100.8587948704311</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
         <v>560.2696954384398</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>1420.222355242758</v>
       </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
       <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
         <v>1662.989228952572</v>
       </c>
-      <c r="AP17">
+      <c r="AR17">
         <v>1716.559025292939</v>
       </c>
-      <c r="AQ17">
+      <c r="AS17">
         <v>1514.195346360756</v>
       </c>
-      <c r="AR17">
+      <c r="AT17">
         <v>153.1000661057284</v>
       </c>
-      <c r="AS17">
+      <c r="AU17">
         <v>3383.854437759423</v>
       </c>
-      <c r="AT17">
+      <c r="AV17">
         <v>245.8266208790969</v>
       </c>
-      <c r="AU17">
+      <c r="AW17">
         <v>100.2502500000003</v>
       </c>
-      <c r="AV17">
+      <c r="AX17">
         <v>236.5555494976879</v>
       </c>
-      <c r="AW17">
+      <c r="AY17">
         <v>188.1290101148273</v>
       </c>
-      <c r="AX17">
+      <c r="AZ17">
+        <v>1586.814535484292</v>
+      </c>
+      <c r="BA17">
         <v>44</v>
       </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
         <v>188.3565493054015</v>
       </c>
-      <c r="BA17">
+      <c r="BD17">
         <v>534.9879446679679</v>
       </c>
-      <c r="BB17">
+      <c r="BE17">
         <v>21.6394803409951</v>
       </c>
-      <c r="BC17">
+      <c r="BF17">
         <v>1411.172646197665</v>
       </c>
-      <c r="BD17">
+      <c r="BG17">
         <v>1967.895854880551</v>
       </c>
-      <c r="BE17">
+      <c r="BH17">
         <v>84.73877954009076</v>
       </c>
-      <c r="BF17">
+      <c r="BI17">
         <v>0.6085448704308245</v>
       </c>
     </row>
@@ -3492,25 +3651,25 @@
         <v>1530.792042843363</v>
       </c>
       <c r="L18">
+        <v>749.7462776422768</v>
+      </c>
+      <c r="M18">
         <v>609.0585092011908</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>554.6929574085671</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>251.544379693251</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>76.02995588093096</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.004663517061526346</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2376.644694747579</v>
-      </c>
-      <c r="R18">
-        <v>0.005492326385298174</v>
       </c>
       <c r="S18">
         <v>0.005492326385298174</v>
@@ -3519,10 +3678,10 @@
         <v>0.005492326385298174</v>
       </c>
       <c r="U18">
+        <v>0.005492326385298174</v>
+      </c>
+      <c r="V18">
         <v>0.004663517061526346</v>
-      </c>
-      <c r="V18">
-        <v>0.005492326385298174</v>
       </c>
       <c r="W18">
         <v>0.005492326385298174</v>
@@ -3531,105 +3690,114 @@
         <v>0.005492326385298174</v>
       </c>
       <c r="Y18">
+        <v>0.005492326385298174</v>
+      </c>
+      <c r="Z18">
         <v>831.5070016808419</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>788.8939117178987</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1644.481190686975</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>44</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
+        <v>3625.729270000914</v>
+      </c>
+      <c r="AE18">
         <v>1848.728290812052</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>2278.96600413909</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>1559.347249516656</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>1583.583825651547</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>5421.993918611828</v>
       </c>
-      <c r="AH18">
+      <c r="AJ18">
         <v>374.4491414007676</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <v>100.8613359106173</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
         <v>554.6929574085671</v>
       </c>
-      <c r="AL18">
+      <c r="AN18">
         <v>1456.352180572148</v>
       </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
       <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
         <v>1659.28906738686</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <v>1738.081964382886</v>
       </c>
-      <c r="AQ18">
+      <c r="AS18">
         <v>1537.469280747983</v>
       </c>
-      <c r="AR18">
+      <c r="AT18">
         <v>156.8586643162485</v>
       </c>
-      <c r="AS18">
+      <c r="AU18">
         <v>3432.409909447117</v>
       </c>
-      <c r="AT18">
+      <c r="AV18">
         <v>288.7764568880336</v>
       </c>
-      <c r="AU18">
+      <c r="AW18">
         <v>100.2502500000001</v>
       </c>
-      <c r="AV18">
+      <c r="AX18">
         <v>234.2009543093317</v>
       </c>
-      <c r="AW18">
+      <c r="AY18">
         <v>188.1290101148273</v>
       </c>
-      <c r="AX18">
+      <c r="AZ18">
+        <v>1598.715644500424</v>
+      </c>
+      <c r="BA18">
         <v>44</v>
       </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
         <v>189.439223425192</v>
       </c>
-      <c r="BA18">
+      <c r="BD18">
         <v>540.8840397562044</v>
       </c>
-      <c r="BB18">
+      <c r="BE18">
         <v>21.87796876867306</v>
       </c>
-      <c r="BC18">
+      <c r="BF18">
         <v>1426.725161335298</v>
       </c>
-      <c r="BD18">
+      <c r="BG18">
         <v>1989.584009164711</v>
       </c>
-      <c r="BE18">
+      <c r="BH18">
         <v>85.67268451273401</v>
       </c>
-      <c r="BF18">
+      <c r="BI18">
         <v>0.6110859106172505</v>
       </c>
     </row>
@@ -3665,25 +3833,25 @@
         <v>1544.072287442834</v>
       </c>
       <c r="L19">
+        <v>756.250632039193</v>
+      </c>
+      <c r="M19">
         <v>602.935194121533</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>549.1162193786943</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>247.2408068497152</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>76.68954672196401</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.005207433285125074</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2400.411141695055</v>
-      </c>
-      <c r="R19">
-        <v>0.006507269187908227</v>
       </c>
       <c r="S19">
         <v>0.006507269187908227</v>
@@ -3692,10 +3860,10 @@
         <v>0.006507269187908227</v>
       </c>
       <c r="U19">
+        <v>0.006507269187908227</v>
+      </c>
+      <c r="V19">
         <v>0.005207433285125074</v>
-      </c>
-      <c r="V19">
-        <v>0.006507269187908227</v>
       </c>
       <c r="W19">
         <v>0.006507269187908227</v>
@@ -3704,105 +3872,114 @@
         <v>0.006507269187908227</v>
       </c>
       <c r="Y19">
+        <v>0.006507269187908227</v>
+      </c>
+      <c r="Z19">
         <v>871.4731978799816</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>780.9625784996697</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>1724.02540296594</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>44</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
+        <v>3686.992624380596</v>
+      </c>
+      <c r="AE19">
         <v>1857.552636212629</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>2305.885200648469</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>1582.839454628498</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>1601.576484532106</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>5490.301139809075</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <v>418.2516663583094</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <v>75.44397348541813</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
         <v>549.1162193786943</v>
       </c>
-      <c r="AL19">
+      <c r="AN19">
         <v>1492.482005901537</v>
       </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
       <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
         <v>1666.659020553185</v>
       </c>
-      <c r="AP19">
+      <c r="AR19">
         <v>1759.604903472833</v>
       </c>
-      <c r="AQ19">
+      <c r="AS19">
         <v>1560.743215135211</v>
       </c>
-      <c r="AR19">
+      <c r="AT19">
         <v>160.6172625267686</v>
       </c>
-      <c r="AS19">
+      <c r="AU19">
         <v>3480.965381134813</v>
       </c>
-      <c r="AT19">
+      <c r="AV19">
         <v>331.7262928969702</v>
       </c>
-      <c r="AU19">
+      <c r="AW19">
         <v>74.83024999999952</v>
       </c>
-      <c r="AV19">
+      <c r="AX19">
         <v>231.8463591209754</v>
       </c>
-      <c r="AW19">
+      <c r="AY19">
         <v>231.5433970644028</v>
       </c>
-      <c r="AX19">
+      <c r="AZ19">
+        <v>1614.702800945428</v>
+      </c>
+      <c r="BA19">
         <v>44</v>
       </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
         <v>190.8936156594439</v>
       </c>
-      <c r="BA19">
+      <c r="BD19">
         <v>546.2802971756363</v>
       </c>
-      <c r="BB19">
+      <c r="BE19">
         <v>22.09623949328765</v>
       </c>
-      <c r="BC19">
+      <c r="BF19">
         <v>1440.959222005338</v>
       </c>
-      <c r="BD19">
+      <c r="BG19">
         <v>2009.335758674262</v>
       </c>
-      <c r="BE19">
+      <c r="BH19">
         <v>86.52537346133926</v>
       </c>
-      <c r="BF19">
+      <c r="BI19">
         <v>0.613723485418602</v>
       </c>
     </row>
@@ -3838,25 +4015,25 @@
         <v>1557.519571859096</v>
       </c>
       <c r="L20">
+        <v>762.8367986466193</v>
+      </c>
+      <c r="M20">
         <v>596.8118790418752</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>543.5394813488216</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>248.9585717819477</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>77.35743394130677</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.005185091302505995</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2425.696511786188</v>
-      </c>
-      <c r="R20">
-        <v>0.007003781629901784</v>
       </c>
       <c r="S20">
         <v>0.007003781629901784</v>
@@ -3865,10 +4042,10 @@
         <v>0.007003781629901784</v>
       </c>
       <c r="U20">
+        <v>0.007003781629901784</v>
+      </c>
+      <c r="V20">
         <v>0.005185091302505995</v>
-      </c>
-      <c r="V20">
-        <v>0.007003781629901784</v>
       </c>
       <c r="W20">
         <v>0.007003781629901784</v>
@@ -3877,105 +4054,114 @@
         <v>0.007003781629901784</v>
       </c>
       <c r="Y20">
+        <v>0.007003781629901784</v>
+      </c>
+      <c r="Z20">
         <v>911.4393940791213</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>773.0312452814406</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>1760.155228295329</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>44</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
+        <v>3734.935836403162</v>
+      </c>
+      <c r="AE20">
         <v>1850.727268041486</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>2332.749688557284</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>1606.329446857418</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>1619.424834963477</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <v>5558.50397037818</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20">
         <v>462.0475506483281</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <v>75.77356523904082</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
         <v>543.5394813488216</v>
       </c>
-      <c r="AL20">
+      <c r="AN20">
         <v>1528.611831230926</v>
       </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
       <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
         <v>1654.123322532004</v>
       </c>
-      <c r="AP20">
+      <c r="AR20">
         <v>1781.127842562781</v>
       </c>
-      <c r="AQ20">
+      <c r="AS20">
         <v>1584.017149522439</v>
       </c>
-      <c r="AR20">
+      <c r="AT20">
         <v>164.3758607372887</v>
       </c>
-      <c r="AS20">
+      <c r="AU20">
         <v>3529.520852822509</v>
       </c>
-      <c r="AT20">
+      <c r="AV20">
         <v>374.6761289059069</v>
       </c>
-      <c r="AU20">
+      <c r="AW20">
         <v>75.15716058254316</v>
       </c>
-      <c r="AV20">
+      <c r="AX20">
         <v>229.4917639326191</v>
       </c>
-      <c r="AW20">
+      <c r="AY20">
         <v>231.5433970644027</v>
       </c>
-      <c r="AX20">
+      <c r="AZ20">
+        <v>1631.711702962215</v>
+      </c>
+      <c r="BA20">
         <v>44</v>
       </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
         <v>196.6039455094818</v>
       </c>
-      <c r="BA20">
+      <c r="BD20">
         <v>551.6218459945027</v>
       </c>
-      <c r="BB20">
+      <c r="BE20">
         <v>22.31229733497988</v>
       </c>
-      <c r="BC20">
+      <c r="BF20">
         <v>1455.048974226188</v>
       </c>
-      <c r="BD20">
+      <c r="BG20">
         <v>2028.983117555671</v>
       </c>
-      <c r="BE20">
+      <c r="BH20">
         <v>87.37142174242121</v>
       </c>
-      <c r="BF20">
+      <c r="BI20">
         <v>0.6164046564976617</v>
       </c>
     </row>
@@ -4011,25 +4197,25 @@
         <v>1572.457881469324</v>
       </c>
       <c r="L21">
+        <v>770.1532346556107</v>
+      </c>
+      <c r="M21">
         <v>590.6885639622172</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>537.9627433189488</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>250.866801250513</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>78.09937601365499</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.005265472378314096</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2448.483327520491</v>
-      </c>
-      <c r="R21">
-        <v>0.007232591441219238</v>
       </c>
       <c r="S21">
         <v>0.007232591441219238</v>
@@ -4038,10 +4224,10 @@
         <v>0.007232591441219238</v>
       </c>
       <c r="U21">
+        <v>0.007232591441219238</v>
+      </c>
+      <c r="V21">
         <v>0.005265472378314096</v>
-      </c>
-      <c r="V21">
-        <v>0.007232591441219238</v>
       </c>
       <c r="W21">
         <v>0.007232591441219238</v>
@@ -4050,105 +4236,114 @@
         <v>0.007232591441219238</v>
       </c>
       <c r="Y21">
+        <v>0.007232591441219238</v>
+      </c>
+      <c r="Z21">
         <v>951.405590278261</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>765.0999120632116</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>1793.909408593798</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>44</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
+        <v>3761.339412551121</v>
+      </c>
+      <c r="AE21">
         <v>1815.954139194711</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>2359.857878414072</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>1629.829296473901</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>1637.916013941236</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>5627.603188829208</v>
       </c>
-      <c r="AH21">
+      <c r="AJ21">
         <v>505.882034906478</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
         <v>76.10736780484662</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
         <v>537.9627433189488</v>
       </c>
-      <c r="AL21">
+      <c r="AN21">
         <v>1564.741656560315</v>
       </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
       <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
         <v>1614.024682755586</v>
       </c>
-      <c r="AP21">
+      <c r="AR21">
         <v>1802.650781652728</v>
       </c>
-      <c r="AQ21">
+      <c r="AS21">
         <v>1607.291083909666</v>
       </c>
-      <c r="AR21">
+      <c r="AT21">
         <v>168.1344589478088</v>
       </c>
-      <c r="AS21">
+      <c r="AU21">
         <v>3578.076324510203</v>
       </c>
-      <c r="AT21">
+      <c r="AV21">
         <v>417.6259649148436</v>
       </c>
-      <c r="AU21">
+      <c r="AW21">
         <v>75.4882477230517</v>
       </c>
-      <c r="AV21">
+      <c r="AX21">
         <v>227.1371687442628</v>
       </c>
-      <c r="AW21">
+      <c r="AY21">
         <v>229.1677520334831</v>
       </c>
-      <c r="AX21">
+      <c r="AZ21">
+        <v>1647.039883435841</v>
+      </c>
+      <c r="BA21">
         <v>44</v>
       </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21">
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
         <v>201.9294564391257</v>
       </c>
-      <c r="BA21">
+      <c r="BD21">
         <v>557.2070967613433</v>
       </c>
-      <c r="BB21">
+      <c r="BE21">
         <v>22.53821256423535</v>
       </c>
-      <c r="BC21">
+      <c r="BF21">
         <v>1469.781554993427</v>
       </c>
-      <c r="BD21">
+      <c r="BG21">
         <v>2049.526864319006</v>
       </c>
-      <c r="BE21">
+      <c r="BH21">
         <v>88.25606999163443</v>
       </c>
-      <c r="BF21">
+      <c r="BI21">
         <v>0.619120081794921</v>
       </c>
     </row>
